--- a/db/v3.hsHB.xlsx
+++ b/db/v3.hsHB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hua/Documents/Workspace/_singleCell/celltypeAnno/publicVersion/ctestimate/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hua/Documents/Workspace/_singleCell/celltypeAnno/github_version/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC917F1F-A3CF-734A-B76E-57A94CBED778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F337B5-711C-824E-A2B3-77B430C33CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="4020" windowWidth="23580" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="4020" windowWidth="28580" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="468">
   <si>
     <t>tissueType</t>
   </si>
@@ -524,24 +524,6 @@
     <t>Cerebellum</t>
   </si>
   <si>
-    <t>RGC-Like</t>
-  </si>
-  <si>
-    <t>OPC-Like</t>
-  </si>
-  <si>
-    <t>Oligo-Like</t>
-  </si>
-  <si>
-    <t>Astro-Like</t>
-  </si>
-  <si>
-    <t>nIPC-Like</t>
-  </si>
-  <si>
-    <t>Plac-Like</t>
-  </si>
-  <si>
     <t>PMID: 15582153;PMID: 34140698;</t>
   </si>
   <si>
@@ -698,15 +680,9 @@
     <t>PC</t>
   </si>
   <si>
-    <t>RL-Like</t>
-  </si>
-  <si>
     <t>RL</t>
   </si>
   <si>
-    <t>GCP-Like</t>
-  </si>
-  <si>
     <t>GCP</t>
   </si>
   <si>
@@ -722,51 +698,27 @@
     <t>PIP</t>
   </si>
   <si>
-    <t>BG-Like</t>
-  </si>
-  <si>
     <t>BG</t>
   </si>
   <si>
-    <t>Glia-Like</t>
-  </si>
-  <si>
-    <t>cOPC-Like</t>
-  </si>
-  <si>
     <t>cOPC</t>
   </si>
   <si>
-    <t>Menin-Like</t>
-  </si>
-  <si>
     <t>Menin</t>
   </si>
   <si>
-    <t>BS-Like</t>
-  </si>
-  <si>
     <t>BS</t>
   </si>
   <si>
     <t>MLI</t>
   </si>
   <si>
-    <t>CP-Like</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
-    <t>UBC-Like</t>
-  </si>
-  <si>
     <t>UBC</t>
   </si>
   <si>
-    <t>Purk-Like</t>
-  </si>
-  <si>
     <t>Ery.Med1</t>
   </si>
   <si>
@@ -1475,22 +1427,16 @@
     <t>Ependymal cells</t>
   </si>
   <si>
-    <t>Neuronal-Like</t>
-  </si>
-  <si>
-    <t>Microglial-Like</t>
-  </si>
-  <si>
-    <t>Neuroblast-Like</t>
-  </si>
-  <si>
-    <t>Glioblast-Like</t>
-  </si>
-  <si>
-    <t>Fibroblast-Like</t>
-  </si>
-  <si>
-    <t>Epend-Like</t>
+    <t>Purk</t>
+  </si>
+  <si>
+    <t>nIPC</t>
+  </si>
+  <si>
+    <t>Plac</t>
+  </si>
+  <si>
+    <t>RGC</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1550,36 +1496,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1885,9 +1820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1896,15 +1831,15 @@
     <col min="2" max="2" width="44.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="22.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="118" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="118" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1939,250 +1874,250 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>243</v>
+        <v>464</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2190,10 +2125,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>17</v>
@@ -2205,10 +2140,10 @@
         <v>162</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2216,10 +2151,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
@@ -2231,10 +2166,10 @@
         <v>162</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2242,10 +2177,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>8</v>
@@ -2257,44 +2192,44 @@
         <v>162</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
@@ -2312,21 +2247,21 @@
         <v>162</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>481</v>
+        <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>19</v>
@@ -2338,36 +2273,36 @@
         <v>162</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2375,7 +2310,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>27</v>
@@ -2393,149 +2328,148 @@
         <v>162</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>485</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>162</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K23" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>33</v>
@@ -2550,18 +2484,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>33</v>
@@ -2576,18 +2510,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>33</v>
@@ -2602,18 +2536,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>33</v>
@@ -2628,18 +2562,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>33</v>
@@ -2654,18 +2588,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>34</v>
@@ -2680,18 +2614,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>34</v>
@@ -2706,18 +2640,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>34</v>
@@ -2732,18 +2666,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>34</v>
@@ -2758,18 +2692,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>34</v>
@@ -2784,18 +2718,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>34</v>
@@ -2810,18 +2744,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>34</v>
@@ -2836,18 +2770,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>34</v>
@@ -2862,18 +2796,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>34</v>
@@ -2888,44 +2822,44 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K38" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>32</v>
@@ -2940,18 +2874,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>32</v>
@@ -2966,18 +2900,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>33</v>
@@ -2992,18 +2926,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>33</v>
@@ -3018,18 +2952,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>33</v>
@@ -3044,18 +2978,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>33</v>
@@ -3070,18 +3004,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>33</v>
@@ -3096,18 +3030,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>33</v>
@@ -3122,18 +3056,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>33</v>
@@ -3148,18 +3082,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>33</v>
@@ -3174,18 +3108,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>33</v>
@@ -3200,18 +3134,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>33</v>
@@ -3226,18 +3160,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>34</v>
@@ -3252,18 +3186,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>34</v>
@@ -3278,18 +3212,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>34</v>
@@ -3304,18 +3238,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>34</v>
@@ -3330,18 +3264,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>34</v>
@@ -3356,18 +3290,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>34</v>
@@ -3382,18 +3316,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>34</v>
@@ -3408,18 +3342,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>34</v>
@@ -3434,18 +3368,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>34</v>
@@ -3460,18 +3394,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>34</v>
@@ -3486,18 +3420,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>34</v>
@@ -3512,18 +3446,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>34</v>
@@ -3538,18 +3472,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>34</v>
@@ -3564,18 +3498,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>34</v>
@@ -3590,18 +3524,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>34</v>
@@ -3616,18 +3550,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>34</v>
@@ -3642,18 +3576,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>34</v>
@@ -3668,18 +3602,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>127</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>34</v>
@@ -3694,18 +3628,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>129</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>34</v>
@@ -3720,18 +3654,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>34</v>
@@ -3746,18 +3680,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>133</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>34</v>
@@ -3772,18 +3706,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>37</v>
@@ -3798,18 +3732,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>137</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>37</v>
@@ -3824,18 +3758,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>37</v>
@@ -3850,18 +3784,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>37</v>
@@ -3876,18 +3810,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>37</v>
@@ -3902,18 +3836,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>168</v>
+        <v>466</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>146</v>
@@ -3928,18 +3862,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>168</v>
+        <v>466</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>146</v>
@@ -3954,18 +3888,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>150</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>26</v>
@@ -3980,18 +3914,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>26</v>
@@ -4006,18 +3940,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>154</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>26</v>
@@ -4032,18 +3966,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>26</v>
@@ -4058,18 +3992,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>26</v>
@@ -4084,41 +4018,41 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="84" spans="1:11" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G84" s="4" t="s">
+      <c r="E84" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>30</v>
@@ -4130,24 +4064,24 @@
         <v>35</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>484</v>
+        <v>31</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>31</v>
@@ -4156,24 +4090,24 @@
         <v>31</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>32</v>
@@ -4182,24 +4116,24 @@
         <v>32</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>32</v>
@@ -4208,24 +4142,24 @@
         <v>32</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>32</v>
@@ -4234,24 +4168,24 @@
         <v>32</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>32</v>
@@ -4260,24 +4194,24 @@
         <v>32</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>32</v>
@@ -4286,24 +4220,24 @@
         <v>32</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>32</v>
@@ -4312,24 +4246,24 @@
         <v>32</v>
       </c>
       <c r="I92" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="K92" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="E93" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>32</v>
@@ -4338,24 +4272,24 @@
         <v>32</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>32</v>
@@ -4364,24 +4298,24 @@
         <v>32</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>32</v>
@@ -4390,24 +4324,24 @@
         <v>32</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>32</v>
@@ -4416,1012 +4350,1012 @@
         <v>32</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="E105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="E106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="3" t="s">
+      <c r="E107" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="E108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="E109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="E110" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="3" t="s">
+      <c r="E112" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="3" t="s">
+      <c r="E113" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="3" t="s">
+      <c r="E114" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="3" t="s">
+      <c r="E115" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="E116" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="3" t="s">
+      <c r="E117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="3" t="s">
+      <c r="E118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="3" t="s">
+      <c r="E119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="3" t="s">
+      <c r="E120" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="3" t="s">
+      <c r="E121" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="3" t="s">
+      <c r="E122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="3" t="s">
+      <c r="E123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="E124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="E125" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="3" t="s">
+      <c r="E126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="3" t="s">
+      <c r="E127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="3" t="s">
+      <c r="E128" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="3" t="s">
+      <c r="E129" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="3" t="s">
+      <c r="E130" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="3" t="s">
+      <c r="E131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="3" t="s">
+      <c r="E132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="3" t="s">
+      <c r="E133" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="3" t="s">
+      <c r="E134" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K129" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K132" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="E135" s="3" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>15</v>
@@ -5430,24 +5364,24 @@
         <v>8</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>15</v>
@@ -5456,24 +5390,24 @@
         <v>8</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>168</v>
+        <v>466</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>146</v>
@@ -5482,24 +5416,24 @@
         <v>146</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K137" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>168</v>
+        <v>466</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>146</v>
@@ -5508,24 +5442,24 @@
         <v>146</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K138" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>168</v>
+        <v>466</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>146</v>
@@ -5534,24 +5468,24 @@
         <v>146</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K139" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>168</v>
+        <v>466</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>146</v>
@@ -5560,24 +5494,24 @@
         <v>146</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K140" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>26</v>
@@ -5586,24 +5520,24 @@
         <v>26</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K141" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>26</v>
@@ -5612,24 +5546,24 @@
         <v>26</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K142" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>26</v>
@@ -5638,24 +5572,24 @@
         <v>26</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K143" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>26</v>
@@ -5664,24 +5598,24 @@
         <v>26</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K144" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>26</v>
@@ -5690,24 +5624,24 @@
         <v>26</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K145" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>26</v>
@@ -5716,24 +5650,24 @@
         <v>26</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K146" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>26</v>
@@ -5742,24 +5676,24 @@
         <v>26</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K147" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>26</v>
@@ -5768,24 +5702,24 @@
         <v>26</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K148" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>26</v>
@@ -5794,24 +5728,24 @@
         <v>26</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K149" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>26</v>
@@ -5820,24 +5754,24 @@
         <v>26</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K150" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>26</v>
@@ -5846,24 +5780,24 @@
         <v>26</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K151" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>26</v>
@@ -5872,24 +5806,24 @@
         <v>26</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K152" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>26</v>
@@ -5898,24 +5832,24 @@
         <v>26</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K153" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>26</v>
@@ -5924,24 +5858,24 @@
         <v>26</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K154" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>26</v>
@@ -5950,24 +5884,24 @@
         <v>26</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>26</v>
@@ -5976,24 +5910,24 @@
         <v>26</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K156" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>26</v>
@@ -6002,24 +5936,24 @@
         <v>26</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K157" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>26</v>
@@ -6028,24 +5962,24 @@
         <v>26</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K158" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>26</v>
@@ -6054,50 +5988,50 @@
         <v>26</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K159" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E160" s="4" t="s">
+    <row r="160" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F160" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="G160" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I160" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I160" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>32</v>
@@ -6106,24 +6040,24 @@
         <v>32</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K161" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>483</v>
+        <v>32</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>32</v>
@@ -6132,752 +6066,752 @@
         <v>32</v>
       </c>
       <c r="I162" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="K162" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B163" s="3" t="s">
+      <c r="E169" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K163" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B164" s="3" t="s">
+      <c r="E171" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B165" s="3" t="s">
+      <c r="E172" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K165" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="3" t="s">
+      <c r="E173" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K166" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B167" s="3" t="s">
+      <c r="E174" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K167" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B168" s="3" t="s">
+      <c r="E175" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K168" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="3" t="s">
+      <c r="E176" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K169" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B170" s="3" t="s">
+      <c r="E177" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K170" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" s="3" t="s">
+      <c r="E178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B172" s="3" t="s">
+      <c r="E179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B173" s="3" t="s">
+      <c r="E180" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K173" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B174" s="3" t="s">
+      <c r="E181" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K174" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B175" s="3" t="s">
+      <c r="E182" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C183" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K175" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B176" s="3" t="s">
+      <c r="E183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K176" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177" s="3" t="s">
+      <c r="E184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K177" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B178" s="3" t="s">
+      <c r="E185" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E178" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K178" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" s="3" t="s">
+      <c r="E186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E179" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K179" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B180" s="3" t="s">
+      <c r="E187" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E180" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I180" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K180" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B181" s="3" t="s">
+      <c r="E188" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I181" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K181" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" s="3" t="s">
+      <c r="E189" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K182" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" s="3" t="s">
+      <c r="E190" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I183" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K183" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K184" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I185" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K185" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K186" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K187" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K188" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I189" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K189" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="E191" s="3" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>37</v>
@@ -6886,24 +6820,24 @@
         <v>37</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K191" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>37</v>
@@ -6912,24 +6846,24 @@
         <v>37</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K192" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>15</v>
@@ -6938,24 +6872,24 @@
         <v>8</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K193" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>26</v>
@@ -6964,24 +6898,24 @@
         <v>26</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K194" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>26</v>
@@ -6990,24 +6924,24 @@
         <v>26</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K195" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>26</v>
@@ -7016,24 +6950,24 @@
         <v>26</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K196" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C197" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>26</v>
@@ -7042,24 +6976,24 @@
         <v>26</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K197" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>26</v>
@@ -7068,65 +7002,47 @@
         <v>26</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K198" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="E199" s="4" t="s">
+    <row r="199" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E199" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F199" s="4" t="s">
+      <c r="F199" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G199" s="4" t="s">
+      <c r="G199" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I199" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="K199" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K200" s="3"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K201" s="3"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K202" s="3"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K203" s="3"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K204" s="3"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K205" s="3"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K206" s="3"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K207" s="3"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K208" s="3"/>
-    </row>
+      <c r="I199" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/db/v3.hsHB.xlsx
+++ b/db/v3.hsHB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hua/Documents/Workspace/_singleCell/celltypeAnno/github_version/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDC1914-DBFD-4D49-B461-5EB760B63D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F716AAE-E9EB-7E42-8D1B-2ECA29E6E99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="4120" windowWidth="28580" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="5120" windowWidth="28580" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="506">
   <si>
     <t>tissueType</t>
   </si>
@@ -1533,6 +1533,24 @@
   </si>
   <si>
     <t>Cerebellum,Tumo,rPF-EPN</t>
+  </si>
+  <si>
+    <t>Neuronal-Glial cells</t>
+  </si>
+  <si>
+    <t>C8orf34,OBI1-AS1,LDB2,PPFIA2,TTC6,ANGPT1</t>
+  </si>
+  <si>
+    <t>Neuronal-Like</t>
+  </si>
+  <si>
+    <t>Neuronal-Glial cell (mixed)</t>
+  </si>
+  <si>
+    <t>Hindbrain/Midbrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manually </t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1645,6 +1663,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1948,11 +1968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K209"/>
+  <dimension ref="A1:M210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I212" sqref="I212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7365,7 +7385,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="209" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
         <v>6</v>
       </c>
@@ -7387,6 +7407,35 @@
       <c r="K209" s="10" t="s">
         <v>478</v>
       </c>
+    </row>
+    <row r="210" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="J210" s="11"/>
+      <c r="K210" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="L210" s="11"/>
+      <c r="M210" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
